--- a/data/trans_orig/P20D2_R_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12283</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8158</v>
+        <v>8035</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15141</v>
+        <v>14923</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7377030120195399</v>
+        <v>0.7377030120195401</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4899292837959672</v>
+        <v>0.4825514315195084</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9092987576693095</v>
+        <v>0.8962191322320983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -762,19 +762,19 @@
         <v>3963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1625</v>
+        <v>1511</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7490</v>
+        <v>7252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2975567763564207</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1220111736516022</v>
+        <v>0.1134180830561008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5623201973516047</v>
+        <v>0.5444496564710269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>16247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10864</v>
+        <v>10914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21196</v>
+        <v>21483</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5421017242907963</v>
+        <v>0.5421017242907964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3625054432019195</v>
+        <v>0.3641728550723866</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7072286015529353</v>
+        <v>0.716804461422749</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1510</v>
+        <v>1728</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8493</v>
+        <v>8616</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.26229698798046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09070124233069053</v>
+        <v>0.103780867767902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5100707162040323</v>
+        <v>0.5174485684804919</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -833,19 +833,19 @@
         <v>9356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5829</v>
+        <v>6067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11694</v>
+        <v>11808</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7024432236435793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4376798026483948</v>
+        <v>0.4555503435289733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8779888263483977</v>
+        <v>0.8865819169438993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -854,19 +854,19 @@
         <v>13723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8774</v>
+        <v>8487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19106</v>
+        <v>19056</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4578982757092036</v>
+        <v>0.4578982757092037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2927713984470647</v>
+        <v>0.2831955385772511</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6374945567980805</v>
+        <v>0.6358271449276134</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>10087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5582</v>
+        <v>5506</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13532</v>
+        <v>13549</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6444768226334243</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3566293927571277</v>
+        <v>0.351780235706655</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8645583481381458</v>
+        <v>0.8656207276337685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -979,19 +979,19 @@
         <v>8952</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5233</v>
+        <v>5405</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12854</v>
+        <v>12967</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5793057738957609</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3386314130493246</v>
+        <v>0.3497769842547536</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8317819880623334</v>
+        <v>0.8391312878363518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1000,19 +1000,19 @@
         <v>19039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13418</v>
+        <v>13318</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24636</v>
+        <v>24344</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6120999870821746</v>
+        <v>0.6120999870821744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4313869706610641</v>
+        <v>0.4281658522546311</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7920268858804066</v>
+        <v>0.7826394794698879</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>5565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2120</v>
+        <v>2103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10070</v>
+        <v>10146</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3555231773665757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1354416518618543</v>
+        <v>0.134379272366231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6433706072428721</v>
+        <v>0.6482197642933448</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1050,19 +1050,19 @@
         <v>6501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2599</v>
+        <v>2486</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10220</v>
+        <v>10048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4206942261042391</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1682180119376669</v>
+        <v>0.160868712163648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6613685869506752</v>
+        <v>0.6502230157452468</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -1071,19 +1071,19 @@
         <v>12066</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6469</v>
+        <v>6761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17687</v>
+        <v>17787</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3879000129178254</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2079731141195934</v>
+        <v>0.217360520530112</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5686130293389359</v>
+        <v>0.571834147745369</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6601</v>
+        <v>6182</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14093</v>
+        <v>14287</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7035276831850187</v>
+        <v>0.7035276831850188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4272405672392151</v>
+        <v>0.4000745603536014</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9120838338492332</v>
+        <v>0.9246327456096887</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1196,19 +1196,19 @@
         <v>4129</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1482</v>
+        <v>1885</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6732</v>
+        <v>6523</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4495882611173522</v>
+        <v>0.4495882611173523</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1613740879108277</v>
+        <v>0.2052916421063</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7330322768019463</v>
+        <v>0.7102174758906468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1217,19 +1217,19 @@
         <v>14999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10166</v>
+        <v>10262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19290</v>
+        <v>19603</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6088609096275754</v>
+        <v>0.6088609096275756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4126839236923974</v>
+        <v>0.4165567765098919</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7830351214284152</v>
+        <v>0.7957294115957442</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>4581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1358</v>
+        <v>1164</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8850</v>
+        <v>9269</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2964723168149812</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08791616615076685</v>
+        <v>0.07536725439031129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5727594327607859</v>
+        <v>0.5999254396463987</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1267,19 +1267,19 @@
         <v>5055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2452</v>
+        <v>2661</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7702</v>
+        <v>7299</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5504117388826477</v>
+        <v>0.5504117388826478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2669677231980546</v>
+        <v>0.2897825241093533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8386259120891735</v>
+        <v>0.7947083578937001</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>9636</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5345</v>
+        <v>5032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14469</v>
+        <v>14373</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3911390903724246</v>
+        <v>0.3911390903724247</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2169648785715847</v>
+        <v>0.204270588404256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5873160763076026</v>
+        <v>0.583443223490108</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>15735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11592</v>
+        <v>11668</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18442</v>
+        <v>18731</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.769498508125424</v>
+        <v>0.7694985081254239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5669197844312139</v>
+        <v>0.5706235145903054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9018901699747811</v>
+        <v>0.9160281942497757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1413,19 +1413,19 @@
         <v>6281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3650</v>
+        <v>3339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9771</v>
+        <v>9702</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3249095626901092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1888363768861075</v>
+        <v>0.1727254914586742</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5055015367753011</v>
+        <v>0.5019264496969623</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1434,19 +1434,19 @@
         <v>22015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16795</v>
+        <v>16373</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26729</v>
+        <v>26554</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5534516385385508</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4222207669495768</v>
+        <v>0.411613337305371</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6719601853484074</v>
+        <v>0.6675666295082742</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>4713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2006</v>
+        <v>1717</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8856</v>
+        <v>8780</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2305014918745762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0981098300252185</v>
+        <v>0.0839718057502243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4330802155687861</v>
+        <v>0.4293764854096945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -1484,19 +1484,19 @@
         <v>13049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9559</v>
+        <v>9628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15680</v>
+        <v>15991</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6750904373098907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4944984632246989</v>
+        <v>0.498073550303037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8111636231138929</v>
+        <v>0.8272745085413257</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1505,19 +1505,19 @@
         <v>17762</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13048</v>
+        <v>13223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22982</v>
+        <v>23404</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4465483614614493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3280398146515928</v>
+        <v>0.3324333704917261</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5777792330504233</v>
+        <v>0.5883866626946291</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48976</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -1630,19 +1630,19 @@
         <v>23324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>89</v>
@@ -1651,19 +1651,19 @@
         <v>72300</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>19226</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13114</v>
+        <v>12630</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27344</v>
+        <v>26563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.281901797553179</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.192286803032738</v>
+        <v>0.1851836121381725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4009335505841712</v>
+        <v>0.3894748540186707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -1701,19 +1701,19 @@
         <v>33961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26187</v>
+        <v>25565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40885</v>
+        <v>40027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5928373895555672</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4571286202279799</v>
+        <v>0.4462825758283387</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7137149233824909</v>
+        <v>0.6987277093343889</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -1722,19 +1722,19 @@
         <v>53187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42766</v>
+        <v>42773</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63902</v>
+        <v>63857</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4238440019248115</v>
+        <v>0.4238440019248116</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3408025506169129</v>
+        <v>0.3408569666078762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.509233116580487</v>
+        <v>0.508874296524938</v>
       </c>
     </row>
     <row r="18">
